--- a/Assets/SDProject/DataTable/Xlsx/CardName.xlsx
+++ b/Assets/SDProject/DataTable/Xlsx/CardName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SD\SDProject\Assets\SDProject\DataTable\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649AADC5-7F66-49DA-9622-3862636FEC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A76A4C-8FB7-4445-AAB2-9DF6C7C1D569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DCFF4548-CAEB-432A-B1AE-A65A169FFBF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DCFF4548-CAEB-432A-B1AE-A65A169FFBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,22 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ko</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -70,11 +54,88 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CardDesc_Common_Attack_NormalAttack_00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_Common_Attack_NormalAttack_01</t>
+    <t>CardName_Base_Atk_Strike_00</t>
+  </si>
+  <si>
+    <t>CardName_Base_Atk_Strike_01</t>
+  </si>
+  <si>
+    <t>CardName_Base_Atk_HeavyStrike_00</t>
+  </si>
+  <si>
+    <t>CardName_Base_Atk_HeavyStrike_01</t>
+  </si>
+  <si>
+    <t>CardName_Def_Guard_00</t>
+  </si>
+  <si>
+    <t>CardName_Def_Guard_01</t>
+  </si>
+  <si>
+    <t>CardName_Sup_Bandage_00</t>
+  </si>
+  <si>
+    <t>CardName_Sup_Bandage_01</t>
+  </si>
+  <si>
+    <t>CardName_Move_Shift_00</t>
+  </si>
+  <si>
+    <t>CardName_Move_Shift_01</t>
+  </si>
+  <si>
+    <t>CardName_Move_Swap_00</t>
+  </si>
+  <si>
+    <t>CardName_Move_Swap_01</t>
+  </si>
+  <si>
+    <t>CardName_Move_Regroup_00</t>
+  </si>
+  <si>
+    <t>CardName_Move_Regroup_01</t>
+  </si>
+  <si>
+    <t>타격</t>
+  </si>
+  <si>
+    <t>타격+</t>
+  </si>
+  <si>
+    <t>강타</t>
+  </si>
+  <si>
+    <t>강타+</t>
+  </si>
+  <si>
+    <t>방어</t>
+  </si>
+  <si>
+    <t>방어+</t>
+  </si>
+  <si>
+    <t>붕대</t>
+  </si>
+  <si>
+    <t>붕대+</t>
+  </si>
+  <si>
+    <t>이동</t>
+  </si>
+  <si>
+    <t>이동+</t>
+  </si>
+  <si>
+    <t>교대</t>
+  </si>
+  <si>
+    <t>교대+</t>
+  </si>
+  <si>
+    <t>재정비</t>
+  </si>
+  <si>
+    <t>재정비+</t>
   </si>
 </sst>
 </file>
@@ -150,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +223,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6A582-305E-4E47-BE5C-1015E047A912}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,10 +580,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -535,24 +599,156 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
